--- a/pesantren/data mabaiz/bbo/BBO Libur Semester 1.xlsx
+++ b/pesantren/data mabaiz/bbo/BBO Libur Semester 1.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\bbo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D79C088B-317F-4C7D-9C3F-FD48CDFAA98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BBAB8D-0126-4C6C-B121-253788A8E369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="libur akhir tahun 2023" sheetId="3" r:id="rId3"/>
-    <sheet name="pembagian vc" sheetId="4" r:id="rId4"/>
+    <sheet name="libur akhir tahun 2023 (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="libur akhir tahun 2023" sheetId="3" r:id="rId4"/>
+    <sheet name="pembagian vc" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'libur akhir tahun 2023'!$A$1:$E$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'libur akhir tahun 2023'!$A$1:$E$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'libur akhir tahun 2023 (2)'!$A$1:$E$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$U$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet2!$A$1:$H$36</definedName>
   </definedNames>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="159">
   <si>
     <t>MUTABA'AH YAUMIYAH</t>
   </si>
@@ -257,9 +259,6 @@
     <t>MUROJA'AH 1                (Ba'da Subuh)</t>
   </si>
   <si>
-    <t>SATU HALAQAH, MURAJAAH SATU JUZ</t>
-  </si>
-  <si>
     <t>17 Desember 2023</t>
   </si>
   <si>
@@ -513,6 +512,74 @@
   </si>
   <si>
     <t xml:space="preserve">*Orang tua memberikan paraf setiap hari ba'da Isya </t>
+  </si>
+  <si>
+    <t>SATU WAKTU, MURAJAAH SATU JUZ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Khusus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tahsin Kelas Tengah</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tilawah dari Juz 26 s/d Juz 30</t>
+    </r>
+  </si>
+  <si>
+    <t>TILAWAH 1 HARI 1 JUZ</t>
+  </si>
+  <si>
+    <t>* Kolom diisi dengan nomor juz</t>
+  </si>
+  <si>
+    <t>* 1 Waktu membaca minimal 3 lembar</t>
+  </si>
+  <si>
+    <t>(Ba'da Subuh)</t>
+  </si>
+  <si>
+    <t>(Ba'da Maghrib)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Pukul 09.00 - 10.00) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Online Senin &amp; Kamis</t>
+    </r>
+  </si>
+  <si>
+    <t>LEMBAR TILAWAH QURAN</t>
+  </si>
+  <si>
+    <t>* Orang Tua memberikan paraf setiap hari setelah ananda selesai tilawah 1 juz</t>
+  </si>
+  <si>
+    <t>* Tanggal-tanggal yang ditebalkan adalah sesi tilawah qur'an via tatap muka daring sesuai pembagian kelompok</t>
   </si>
 </sst>
 </file>
@@ -530,13 +597,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -580,13 +640,26 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -758,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -781,7 +854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -794,7 +867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,6 +877,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,7 +899,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -837,41 +923,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,6 +968,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1151283</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1018761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964A9F4C-C461-410D-B4A1-5FE3F57DCCC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="0"/>
+          <a:ext cx="1018761" cy="1018761"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,76 +1306,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="4" spans="1:8" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="18" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -1537,7 +1672,7 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="10000" scale="68" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1551,8 +1686,8 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,89 +1698,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
     </row>
     <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30" t="s">
+      <c r="C4" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="7">
         <v>16</v>
       </c>
@@ -1662,51 +1797,51 @@
         <v>19</v>
       </c>
       <c r="G5" s="14">
-        <f>F5+1</f>
+        <f t="shared" ref="G5:R5" si="1">F5+1</f>
         <v>20</v>
       </c>
       <c r="H5" s="7">
-        <f>G5+1</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I5" s="7">
-        <f>H5+1</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="J5" s="14">
-        <f>I5+1</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="K5" s="14">
-        <f>J5+1</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="L5" s="14">
-        <f>K5+1</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="M5" s="14">
-        <f>L5+1</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="N5" s="14">
-        <f>M5+1</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="O5" s="14">
-        <f>N5+1</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="P5" s="14">
-        <f>O5+1</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="Q5" s="14">
-        <f>P5+1</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="R5" s="14">
-        <f>Q5+1</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="S5" s="7">
@@ -1716,32 +1851,32 @@
         <f>S5+1</f>
         <v>2</v>
       </c>
-      <c r="U5" s="31"/>
+      <c r="U5" s="34"/>
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="35"/>
+      <c r="A6" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="38"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1881,29 +2016,29 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23"/>
+      <c r="A12" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="28"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2072,7 +2207,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2149,29 +2284,29 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="23"/>
+      <c r="A22" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="28"/>
     </row>
     <row r="23" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -2309,36 +2444,36 @@
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="23"/>
+      <c r="A28" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="28"/>
     </row>
     <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2365,7 +2500,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2388,29 +2523,29 @@
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
+      <c r="A31" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
     </row>
     <row r="32" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
@@ -2443,72 +2578,72 @@
     </row>
     <row r="35" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
-      <c r="B35" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
+      <c r="B35" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
     </row>
     <row r="36" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
+      <c r="B37" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="32" t="s">
+      <c r="I38" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
@@ -2523,23 +2658,26 @@
       <c r="B42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="I42:T42"/>
     <mergeCell ref="I38:T38"/>
     <mergeCell ref="U4:U5"/>
@@ -2552,9 +2690,6 @@
     <mergeCell ref="B35:U35"/>
     <mergeCell ref="A31:U31"/>
     <mergeCell ref="B37:U37"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -2563,14 +2698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FAF2B4-A748-4054-BAE7-9E77068FAD7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBD409B-198F-4511-868A-6734C4078841}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,55 +2716,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="4" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="18" t="s">
+      <c r="B4" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="25"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -2642,163 +2777,163 @@
     </row>
     <row r="8" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+        <v>68</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+        <v>72</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+        <v>75</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+        <v>76</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -2807,17 +2942,22 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2831,7 +2971,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="10000" scale="68" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -2839,6 +2978,296 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FAF2B4-A748-4054-BAE7-9E77068FAD7F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="30"/>
+      <c r="G6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4D305C-AD5A-4796-8BEE-65AD99DF2BFE}">
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -2860,219 +3289,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="F2" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L2" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="G3" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L3" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G4" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L4" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="K5" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="L6" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G7" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L7" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="F8" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="K8" s="20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F9" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K9" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="G10" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K10" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="F11" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="L11" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="L11" s="38" t="s">
+      <c r="K12" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="L13" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="L13" s="38" t="s">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
+      <c r="G15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="s">
+        <v>135</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F15" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" t="s">
-        <v>133</v>
-      </c>
-      <c r="K15" t="s">
-        <v>134</v>
-      </c>
-      <c r="L15" t="s">
-        <v>135</v>
-      </c>
-      <c r="M15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
+      <c r="I16" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="I17" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I18" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
